--- a/docs/PTA2_DDC_100/PTA2_DDC_100_08.11.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731785653.001745</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731785656.6599581</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785653.001745.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731785656.6599581.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7123</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7112.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-10.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731785672.0422153</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731785672.0422153.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731785672.0422153.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7081.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>7081.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>7075.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731785679.1750135</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731785680.000775</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785679.1750135.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785680.000775.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>472.65</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>474.2</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>1.550000000000011</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731785686.2435932</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731785687.3850722</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785686.2435932.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785687.3850722.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>475.05</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>473.9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>1.150000000000034</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731785690.1414542</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731785691.9539456</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785690.1414542.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731785691.9539456.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>475.25</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>474.65</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731785697.876969</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731785700.8515682</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785697.876969.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785700.8515682.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>930.6</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>930.8</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1999999999999318</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731785704.9146833</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731785706.3031383</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785704.9146833.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731785706.3031383.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>932.8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>931.6</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>1.199999999999932</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731785710.397892</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731785710.397892.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731785710.397892.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>931.4</v>
       </c>
-      <c r="J10" t="n">
-        <v>931.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>930.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.6000000000000227</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731785712.6555529</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731785715.7700703</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785712.6555529.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785715.7700703.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>129.3</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>130.06</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731785716.468375</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731785719.9250355</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785716.468375.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785719.9250355.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>129.02</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>129.78</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7599999999999909</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731785723.6143363</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731785725.026612</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785723.6143363.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785725.026612.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>130.06</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>129.74</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.3199999999999932</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731785728.9549687</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731785729.8225286</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785728.9549687.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731785729.8225286.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>130.46</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>130.06</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1147,51 +1235,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731785736.0359268</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731785739.38497</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785736.0359268.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785739.38497.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>37.69</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>37.88</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.1900000000000048</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731785743.7159243</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731785745.3404038</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785743.7159243.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785745.3404038.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>37.99</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>37.87</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731785747.0823252</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731785749.6859672</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785747.0823252.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731785749.6859672.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>38.05</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>37.985</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.06499999999999773</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1303,95 +1409,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731785751.3940759</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731785751.3940759.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731785751.3940759.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>37.91</v>
       </c>
-      <c r="J18" t="n">
-        <v>37.91</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>37.975</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.06500000000000483</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731785754.9974673</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731785756.2229676</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785754.9974673.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785756.2229676.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1190</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1181.8</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>8.200000000000045</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731785763.4318438</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731785769.7913954</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785763.4318438.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731785769.7913954.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1187.6</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1188.6</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-1</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731785775.3530006</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731785779.9017746</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785775.3530006.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785779.9017746.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>78.59</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>78.52</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-0.07000000000000739</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731785782.557698</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731785783.9089408</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785782.557698.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785783.9089408.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>78.63</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>78.34999999999999</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731785785.912423</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731785788.5673816</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785785.912423.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731785788.5673816.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>78.53</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731785790.6773784</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731785798.6617396</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785790.6773784.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785798.6617396.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>103.28</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>102.88</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.4000000000000057</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731785802.243577</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731785803.6718972</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785802.243577.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785803.6718972.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>103.1</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>102.66</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1711,51 +1865,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731785805.8025634</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731785808.5377488</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785805.8025634.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731785808.5377488.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>103.36</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>103</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -1763,51 +1923,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731785813.907974</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731785817.8057714</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731785813.907974.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MXI1731785817.8057714.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>2746.55</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>2748</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>1.449999999999818</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731785822.1550646</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731785823.5516992</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731785822.1550646.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MXI1731785823.5516992.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>2754.55</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>2745.95</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>8.600000000000364</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1867,95 +2039,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731785828.8079712</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731785828.8079712.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731785828.8079712.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>2742.55</v>
       </c>
-      <c r="J29" t="n">
-        <v>2742.55</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731785842.5984948</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731785844.2367053</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/APTK1731785842.5984948.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/APTK1731785844.2367053.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>10.836</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>10.854</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.01799999999999891</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731785858.6918204</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731785862.8660161</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731785858.6918204.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731785862.8660161.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>484.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>484.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2015,95 +2205,107 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731785864.848024</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>./test_images/PIKK1731785864.848024.png</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
+          <t>./test_images/PIKK1731785864.848024.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>483.3</v>
       </c>
-      <c r="J32" t="n">
-        <v>483.3</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>484.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8999999999999773</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731785870.656225</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731785871.8564172</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731785870.656225.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/TATN1731785871.8564172.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>573</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>575.8</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2.799999999999955</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -2111,51 +2313,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731785874.1672246</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731785883.5994394</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/TATN1731785874.1672246.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/TATN1731785883.5994394.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>577.8</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>581.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-3.300000000000068</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -2163,44 +2371,50 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731785883.9572163</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731785883.9572163.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731785883.9572163.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>578.5</v>
       </c>
-      <c r="J35" t="n">
-        <v>578.5</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>575.7</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-2.799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.48</v>
       </c>
     </row>
   </sheetData>
@@ -2261,19 +2475,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3750000000000071</v>
+        <v>0.4400000000000119</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09375000000000178</v>
+        <v>0.110000000000003</v>
       </c>
       <c r="E2" t="n">
-        <v>0.99</v>
+        <v>1.16</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -2327,19 +2541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.05000000000018</v>
+        <v>11.94999999999982</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.35000000000006</v>
+        <v>3.983333333333273</v>
       </c>
       <c r="E5" t="n">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -2349,19 +2563,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.399999999999864</v>
+        <v>0.7999999999998408</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4666666666666212</v>
+        <v>0.2666666666666136</v>
       </c>
       <c r="E6" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -2393,19 +2607,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.5000000000001137</v>
+        <v>-3.300000000000068</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1666666666667046</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="9">
@@ -2459,19 +2673,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-10.5</v>
+        <v>-16.5</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.25</v>
+        <v>-8.25</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.15</v>
+        <v>-0.23</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.08</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="12">
@@ -2481,19 +2695,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.8999999999999773</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.4499999999999886</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
